--- a/py_tian05_tennis/W_tennis.xlsx
+++ b/py_tian05_tennis/W_tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AT117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +608,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -636,14 +636,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -671,14 +666,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -706,14 +696,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -741,14 +726,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -776,14 +756,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -807,11 +782,6 @@
         </is>
       </c>
       <c r="AT3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -820,7 +790,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -848,14 +818,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -883,14 +848,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -918,14 +878,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -945,7 +900,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -953,14 +908,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -970,17 +920,17 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -988,14 +938,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1005,25 +950,20 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1032,7 +972,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1060,14 +1000,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1095,14 +1030,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1130,14 +1060,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1165,14 +1090,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1182,12 +1102,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1200,14 +1120,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1217,7 +1132,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1227,15 +1142,10 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1244,7 +1154,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1272,14 +1182,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1307,14 +1212,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1342,14 +1242,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1377,14 +1272,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1412,14 +1302,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1443,11 +1328,6 @@
         </is>
       </c>
       <c r="AT6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -1456,39 +1336,189 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1518,7 +1548,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1548,7 +1578,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1578,7 +1608,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1608,27 +1638,27 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1638,17 +1668,17 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -1658,7 +1688,7 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -1670,7 +1700,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1700,7 +1730,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1730,7 +1760,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1760,7 +1790,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1790,7 +1820,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -1805,7 +1835,7 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -1820,7 +1850,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -1835,7 +1865,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -1852,7 +1882,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1882,7 +1912,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1912,7 +1942,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1942,7 +1972,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1972,7 +2002,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -1992,7 +2022,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2002,7 +2032,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2012,7 +2042,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2034,7 +2064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2054,7 +2084,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2064,7 +2094,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2084,7 +2114,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2094,7 +2124,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2109,12 +2139,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2124,7 +2154,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2154,22 +2184,22 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -2184,7 +2214,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2199,12 +2229,12 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -2216,7 +2246,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2246,7 +2276,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2276,7 +2306,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2306,7 +2336,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2336,22 +2366,22 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2366,7 +2396,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -2381,7 +2411,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -2398,7 +2428,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2413,7 +2443,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2428,7 +2458,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2458,7 +2488,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2488,7 +2518,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2498,7 +2528,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2518,7 +2548,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2538,7 +2568,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -2548,12 +2578,12 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -2568,7 +2598,7 @@
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -2580,7 +2610,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2610,7 +2640,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2640,7 +2670,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2670,7 +2700,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2690,7 +2720,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2700,7 +2730,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -2715,12 +2745,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -2730,27 +2760,27 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -2762,7 +2792,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2792,7 +2822,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2817,12 +2847,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2842,7 +2872,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2852,7 +2882,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2882,12 +2912,12 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2912,7 +2942,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -2922,7 +2952,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -2932,7 +2962,7 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -2944,7 +2974,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2959,7 +2989,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2974,7 +3004,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3004,7 +3034,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3034,7 +3064,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3064,7 +3094,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3079,7 +3109,7 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -3094,7 +3124,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -3109,12 +3139,12 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -3126,7 +3156,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3156,7 +3186,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3186,7 +3216,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3216,7 +3246,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3246,12 +3276,12 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3276,7 +3306,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -3308,7 +3338,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3338,12 +3368,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3363,12 +3393,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3388,7 +3418,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3398,7 +3428,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3428,22 +3458,22 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3453,32 +3483,32 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -3490,7 +3520,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3520,7 +3550,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3550,7 +3580,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3580,7 +3610,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3600,7 +3630,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3610,7 +3640,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -3640,7 +3670,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -3650,17 +3680,17 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -3672,7 +3702,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3702,7 +3732,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3732,7 +3762,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3762,7 +3792,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3792,7 +3822,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -3802,7 +3832,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -3812,7 +3842,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -3822,12 +3852,12 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -3854,7 +3884,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3884,7 +3914,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3914,7 +3944,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3924,7 +3954,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -3944,7 +3974,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3974,27 +4004,27 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -4004,7 +4034,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -4014,17 +4044,17 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -4036,7 +4066,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4051,7 +4081,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4066,7 +4096,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4081,12 +4111,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4096,7 +4126,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4126,7 +4156,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4136,17 +4166,17 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4156,7 +4186,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -4171,12 +4201,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -4186,7 +4216,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4201,12 +4231,12 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -4218,7 +4248,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4248,7 +4278,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4263,7 +4293,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4278,7 +4308,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4298,7 +4328,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4308,7 +4338,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -4328,7 +4358,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4338,7 +4368,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -4348,17 +4378,17 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -4368,7 +4398,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -4378,17 +4408,17 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -4400,7 +4430,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4430,7 +4460,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4460,7 +4490,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -4490,7 +4520,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4520,7 +4550,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -4550,7 +4580,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -4582,7 +4612,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4602,7 +4632,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4612,7 +4642,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4632,7 +4662,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4642,7 +4672,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -4672,7 +4702,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4702,7 +4732,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -4712,17 +4742,17 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -4732,7 +4762,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -4742,17 +4772,17 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -4764,7 +4794,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4794,7 +4824,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4824,7 +4854,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -4844,7 +4874,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -4854,7 +4884,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -4874,7 +4904,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -4884,17 +4914,17 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -4904,24 +4934,24 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/5(金)  </t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/19(火)  </t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AQ26" t="inlineStr">
         <is>
           <t>X</t>
@@ -4934,7 +4964,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -4946,7 +4976,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4976,7 +5006,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5006,7 +5036,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5036,7 +5066,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -5066,7 +5096,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -5076,7 +5106,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -5086,7 +5116,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -5096,7 +5126,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5106,7 +5136,7 @@
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -5128,7 +5158,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5148,7 +5178,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5158,7 +5188,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5188,7 +5218,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5208,7 +5238,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -5218,7 +5248,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -5233,7 +5263,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5248,7 +5278,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -5258,17 +5288,17 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -5278,7 +5308,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -5288,17 +5318,17 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -5310,7 +5340,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5340,7 +5370,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5355,7 +5385,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5370,7 +5400,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -5400,7 +5430,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -5430,7 +5460,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -5440,19 +5470,19 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AL29" t="inlineStr">
         <is>
           <t>X</t>
@@ -5460,27 +5490,27 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AS29" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -5492,7 +5522,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5522,7 +5552,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5552,7 +5582,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -5572,7 +5602,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -5582,7 +5612,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5597,12 +5627,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -5612,7 +5642,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -5627,42 +5657,42 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -5674,7 +5704,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5704,7 +5734,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5734,7 +5764,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -5764,7 +5794,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -5784,7 +5814,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -5794,12 +5824,12 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -5824,12 +5854,12 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -5856,7 +5886,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5876,7 +5906,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5886,7 +5916,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5906,7 +5936,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5916,7 +5946,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -5946,7 +5976,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5956,7 +5986,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5966,7 +5996,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -5976,27 +6006,27 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -6006,22 +6036,22 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
@@ -6031,14 +6061,14 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6068,7 +6098,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6098,17 +6128,17 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -6118,24 +6148,24 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/12(金)  </t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/26(火)  </t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>X</t>
@@ -6158,12 +6188,12 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -6188,17 +6218,17 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -6220,7 +6250,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6250,7 +6280,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6280,7 +6310,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -6310,7 +6340,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -6340,7 +6370,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -6370,7 +6400,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -6402,7 +6432,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6432,7 +6462,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6462,7 +6492,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -6492,7 +6522,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -6522,27 +6552,27 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -6552,27 +6582,27 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -6584,7 +6614,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6614,7 +6644,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6644,7 +6674,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -6674,7 +6704,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -6704,7 +6734,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -6719,12 +6749,12 @@
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
@@ -6734,7 +6764,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -6766,7 +6796,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6796,7 +6826,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6826,7 +6856,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -6856,7 +6886,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -6886,7 +6916,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -6896,17 +6926,17 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -6916,7 +6946,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -6931,197 +6961,15 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT38" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7284,7 +7132,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -7312,14 +7160,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7347,14 +7190,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -7382,14 +7220,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -7417,14 +7250,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -7448,11 +7276,6 @@
         </is>
       </c>
       <c r="AL43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7461,7 +7284,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -7481,22 +7304,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7521,17 +7339,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -7556,17 +7369,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -7581,27 +7389,22 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
@@ -7621,24 +7424,19 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -7666,14 +7464,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7683,7 +7476,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -7701,14 +7494,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -7718,12 +7506,12 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -7736,14 +7524,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -7763,7 +7546,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
@@ -7771,14 +7554,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
@@ -7798,15 +7576,10 @@
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7815,7 +7588,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7843,14 +7616,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7878,14 +7646,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -7913,14 +7676,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -7948,14 +7706,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
@@ -7979,11 +7732,6 @@
         </is>
       </c>
       <c r="AL46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7992,34 +7740,159 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8029,7 +7902,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8039,7 +7912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8049,7 +7922,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8059,17 +7932,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -8079,7 +7952,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -8089,17 +7962,17 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -8109,7 +7982,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -8119,12 +7992,12 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8139,7 +8012,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -8149,12 +8022,12 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
@@ -8171,7 +8044,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8191,7 +8064,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8201,7 +8074,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8221,17 +8094,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -8256,12 +8129,12 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -8286,12 +8159,12 @@
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
@@ -8316,14 +8189,14 @@
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8353,7 +8226,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -8368,7 +8241,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -8383,7 +8256,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -8398,7 +8271,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -8413,7 +8286,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -8428,7 +8301,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -8443,7 +8316,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -8453,7 +8326,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -8463,19 +8336,19 @@
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8500,17 +8373,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -8525,17 +8398,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -8555,17 +8428,17 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -8595,12 +8468,12 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
@@ -8610,7 +8483,7 @@
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK51" t="inlineStr">
@@ -8627,12 +8500,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8647,17 +8520,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -8667,7 +8540,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -8682,12 +8555,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -8697,27 +8570,27 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -8732,7 +8605,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -8747,12 +8620,12 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
@@ -8767,7 +8640,7 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
@@ -8779,7 +8652,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8809,7 +8682,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -8824,7 +8697,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -8839,7 +8712,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -8854,7 +8727,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -8869,7 +8742,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -8884,7 +8757,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -8894,12 +8767,12 @@
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
@@ -8909,7 +8782,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -8919,19 +8792,19 @@
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8951,17 +8824,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8986,12 +8859,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -9001,7 +8874,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -9021,12 +8894,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -9051,17 +8924,17 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr">
@@ -9071,7 +8944,7 @@
       </c>
       <c r="AK54" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL54" t="inlineStr">
@@ -9083,7 +8956,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -9103,17 +8976,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -9133,62 +9006,62 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -9203,39 +9076,39 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -9265,7 +9138,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -9285,17 +9158,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -9320,12 +9193,12 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -9335,7 +9208,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -9345,17 +9218,17 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
@@ -9365,7 +9238,7 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ56" t="inlineStr">
@@ -9380,14 +9253,14 @@
       </c>
       <c r="AL56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -9417,7 +9290,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -9432,7 +9305,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -9447,7 +9320,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -9462,22 +9335,22 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -9492,22 +9365,22 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
@@ -9527,19 +9400,19 @@
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -9549,7 +9422,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -9559,17 +9432,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -9579,7 +9452,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -9594,12 +9467,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -9609,27 +9482,27 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -9644,7 +9517,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -9659,7 +9532,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
@@ -9669,12 +9542,12 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
@@ -9691,7 +9564,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -9716,12 +9589,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -9741,17 +9614,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -9766,7 +9639,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -9776,12 +9649,12 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -9796,22 +9669,22 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
@@ -9843,7 +9716,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -9873,7 +9746,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -9888,7 +9761,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -9903,7 +9776,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -9913,12 +9786,12 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -9933,7 +9806,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -9943,12 +9816,12 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -9963,7 +9836,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
@@ -9973,7 +9846,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ60" t="inlineStr">
@@ -9983,7 +9856,7 @@
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL60" t="inlineStr">
@@ -9995,7 +9868,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -10015,17 +9888,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -10035,7 +9908,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -10050,12 +9923,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -10080,12 +9953,12 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -10100,22 +9973,22 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
@@ -10135,19 +10008,19 @@
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL61" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -10177,7 +10050,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -10187,7 +10060,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -10207,7 +10080,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -10217,12 +10090,12 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -10237,7 +10110,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -10247,7 +10120,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -10267,22 +10140,22 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
@@ -10299,7 +10172,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -10324,12 +10197,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -10339,7 +10212,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -10349,17 +10222,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -10384,12 +10257,12 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -10399,7 +10272,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -10409,27 +10282,27 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr">
@@ -10444,14 +10317,14 @@
       </c>
       <c r="AL63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -10481,7 +10354,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -10511,7 +10384,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -10541,7 +10414,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -10571,7 +10444,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
@@ -10603,7 +10476,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -10628,12 +10501,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -10658,12 +10531,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -10688,12 +10561,12 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -10713,27 +10586,27 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ65" t="inlineStr">
@@ -10743,19 +10616,19 @@
       </c>
       <c r="AK65" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL65" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -10785,7 +10658,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -10795,7 +10668,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -10815,7 +10688,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -10825,17 +10698,17 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -10845,7 +10718,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -10860,12 +10733,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -10875,7 +10748,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
@@ -10895,7 +10768,7 @@
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL66" t="inlineStr">
@@ -10907,7 +10780,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -10937,7 +10810,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -10952,7 +10825,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -10967,7 +10840,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -10982,7 +10855,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -10997,7 +10870,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -11012,7 +10885,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -11027,7 +10900,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
@@ -11059,12 +10932,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11084,12 +10957,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -11114,12 +10987,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -11139,22 +11012,22 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -11169,17 +11042,17 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
@@ -11199,7 +11072,7 @@
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr">
@@ -11211,7 +11084,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -11241,7 +11114,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -11271,7 +11144,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -11301,7 +11174,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -11311,59 +11184,59 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/8(月)  </t>
+        </is>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="AG69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/22(金)  </t>
-        </is>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI69" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AL69" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -11393,7 +11266,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -11423,7 +11296,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -11443,17 +11316,17 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -11478,22 +11351,22 @@
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
@@ -11508,14 +11381,14 @@
       </c>
       <c r="AL70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -11535,17 +11408,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -11560,22 +11433,22 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -11590,22 +11463,22 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -11615,27 +11488,27 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="AH71" t="inlineStr">
@@ -11645,7 +11518,7 @@
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr">
@@ -11655,19 +11528,19 @@
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL71" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -11697,7 +11570,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -11717,97 +11590,97 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/11(木)  </t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/11(木)  </t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/11(木)  </t>
+        </is>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="AJ72" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/25(月)  </t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/25(月)  </t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AG72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/25(月)  </t>
-        </is>
-      </c>
-      <c r="AH72" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AI72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="AL72" t="inlineStr">
@@ -11819,7 +11692,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -11849,7 +11722,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -11859,7 +11732,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -11874,27 +11747,27 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/12(金)  </t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/26(火)  </t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
@@ -11909,7 +11782,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -11924,7 +11797,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -11939,12 +11812,12 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -11959,7 +11832,7 @@
       </c>
       <c r="AK73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AL73" t="inlineStr">
@@ -11971,7 +11844,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -12001,7 +11874,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -12016,12 +11889,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -12031,7 +11904,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -12046,22 +11919,22 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -12076,22 +11949,22 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="AH74" t="inlineStr">
@@ -12111,19 +11984,19 @@
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL74" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -12133,7 +12006,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -12153,7 +12026,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -12163,7 +12036,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -12183,7 +12056,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -12193,12 +12066,12 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -12213,7 +12086,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -12223,7 +12096,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -12233,27 +12106,27 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AH75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ75" t="inlineStr">
@@ -12263,171 +12136,46 @@
       </c>
       <c r="AK75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
-        </is>
-      </c>
-      <c r="AH76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL76" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -12452,12 +12200,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -12482,12 +12230,12 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -12517,7 +12265,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -12547,12 +12295,12 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
@@ -12579,7 +12327,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -12604,12 +12352,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -12629,17 +12377,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -12649,7 +12397,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -12659,17 +12407,17 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -12679,7 +12427,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -12694,12 +12442,12 @@
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/31(日)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="AH78" t="inlineStr">
@@ -12709,7 +12457,7 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ78" t="inlineStr">
@@ -12724,7 +12472,7 @@
       </c>
       <c r="AL78" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -12841,7 +12589,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -12874,14 +12622,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -12914,14 +12657,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/27(月)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -12950,11 +12688,6 @@
         </is>
       </c>
       <c r="Y83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -12963,7 +12696,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -12988,7 +12721,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12996,14 +12729,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13028,7 +12756,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -13036,14 +12764,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/28(火)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -13072,11 +12795,6 @@
         </is>
       </c>
       <c r="Y84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13085,7 +12803,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -13118,14 +12836,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -13140,7 +12853,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -13158,14 +12871,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/29(水)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -13194,11 +12902,6 @@
         </is>
       </c>
       <c r="Y85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13207,7 +12910,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -13240,14 +12943,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13280,14 +12978,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/30(木)  </t>
+          <t xml:space="preserve">10/16(土)  </t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -13316,11 +13009,6 @@
         </is>
       </c>
       <c r="Y86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -13329,24 +13017,114 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Placeholder</t>
+          <t xml:space="preserve">10/17(日)  </t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -13381,7 +13159,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -13396,7 +13174,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -13416,7 +13194,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/1(金)  </t>
+          <t xml:space="preserve">10/18(月)  </t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -13449,12 +13227,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -13489,7 +13266,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -13524,7 +13301,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/2(土)  </t>
+          <t xml:space="preserve">10/19(火)  </t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -13557,12 +13334,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -13597,7 +13373,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -13617,7 +13393,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -13632,7 +13408,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/3(日)  </t>
+          <t xml:space="preserve">10/20(水)  </t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -13665,12 +13441,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -13695,7 +13470,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -13705,7 +13480,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -13730,7 +13505,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -13740,7 +13515,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/4(月)  </t>
+          <t xml:space="preserve">10/21(木)  </t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -13760,7 +13535,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -13777,7 +13552,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -13812,7 +13587,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -13827,12 +13602,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -13847,7 +13622,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/5(火)  </t>
+          <t xml:space="preserve">10/22(金)  </t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -13872,7 +13647,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -13884,7 +13659,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -13904,7 +13679,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -13919,7 +13694,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -13954,7 +13729,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/6(水)  </t>
+          <t xml:space="preserve">10/23(土)  </t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -13969,17 +13744,17 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -13991,7 +13766,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -14026,7 +13801,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -14061,7 +13836,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/7(木)  </t>
+          <t xml:space="preserve">10/24(日)  </t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -14081,7 +13856,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
@@ -14098,7 +13873,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -14118,7 +13893,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -14133,7 +13908,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -14168,7 +13943,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/8(金)  </t>
+          <t xml:space="preserve">10/25(月)  </t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -14178,7 +13953,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -14193,19 +13968,19 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -14215,7 +13990,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -14240,7 +14015,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -14265,7 +14040,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -14275,7 +14050,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/9(土)  </t>
+          <t xml:space="preserve">10/26(火)  </t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -14300,7 +14075,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -14312,7 +14087,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -14347,7 +14122,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -14362,7 +14137,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -14382,7 +14157,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/10(日)  </t>
+          <t xml:space="preserve">10/27(水)  </t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -14419,7 +14194,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -14444,17 +14219,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -14489,7 +14264,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/11(月)  </t>
+          <t xml:space="preserve">10/28(木)  </t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -14504,7 +14279,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
@@ -14514,7 +14289,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -14526,7 +14301,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -14541,12 +14316,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -14561,7 +14336,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -14596,7 +14371,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/12(火)  </t>
+          <t xml:space="preserve">10/29(金)  </t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -14606,7 +14381,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -14633,7 +14408,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -14643,7 +14418,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -14668,7 +14443,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -14703,7 +14478,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/13(水)  </t>
+          <t xml:space="preserve">10/30(土)  </t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -14740,7 +14515,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14765,7 +14540,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -14775,7 +14550,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -14800,7 +14575,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -14810,7 +14585,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/14(木)  </t>
+          <t xml:space="preserve">10/31(日)  </t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -14835,19 +14610,19 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14867,22 +14642,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -14897,17 +14672,17 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -14917,7 +14692,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/15(金)  </t>
+          <t xml:space="preserve">11/1(月)  </t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -14927,7 +14702,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -14937,12 +14712,12 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -14954,7 +14729,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14964,7 +14739,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -14984,12 +14759,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -15014,7 +14789,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -15024,7 +14799,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/16(土)  </t>
+          <t xml:space="preserve">11/2(火)  </t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -15049,7 +14824,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>問</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -15061,7 +14836,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -15096,7 +14871,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -15131,7 +14906,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/17(日)  </t>
+          <t xml:space="preserve">11/3(水)  </t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -15168,7 +14943,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -15203,7 +14978,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -15228,7 +15003,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -15238,7 +15013,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/18(月)  </t>
+          <t xml:space="preserve">11/4(木)  </t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -15253,7 +15028,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
@@ -15275,7 +15050,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -15310,7 +15085,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/19(火)  </t>
+          <t xml:space="preserve">11/5(金)  </t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -15335,27 +15110,27 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11/5(金)  </t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/19(火)  </t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -15382,7 +15157,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -15417,7 +15192,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -15437,7 +15212,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -15452,7 +15227,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/20(水)  </t>
+          <t xml:space="preserve">11/6(土)  </t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
@@ -15489,7 +15264,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -15514,7 +15289,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -15524,7 +15299,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -15549,7 +15324,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -15559,7 +15334,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/21(木)  </t>
+          <t xml:space="preserve">11/7(日)  </t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -15596,7 +15371,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -15611,7 +15386,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -15631,7 +15406,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -15656,7 +15431,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -15666,17 +15441,17 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/22(金)  </t>
+          <t xml:space="preserve">11/8(月)  </t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -15703,7 +15478,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -15738,12 +15513,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -15763,7 +15538,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -15773,7 +15548,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/23(土)  </t>
+          <t xml:space="preserve">11/9(火)  </t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -15788,7 +15563,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
@@ -15798,7 +15573,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -15810,7 +15585,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -15845,7 +15620,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -15880,12 +15655,12 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/24(日)  </t>
+          <t xml:space="preserve">11/10(水)  </t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
@@ -15917,7 +15692,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -15937,14 +15712,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>X</t>
@@ -15952,7 +15727,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -15977,7 +15752,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -15987,7 +15762,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/25(月)  </t>
+          <t xml:space="preserve">11/11(木)  </t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -16012,7 +15787,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -16024,7 +15799,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -16034,7 +15809,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -16059,7 +15834,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -16084,7 +15859,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -16094,7 +15869,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/26(火)  </t>
+          <t xml:space="preserve">11/12(金)  </t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
@@ -16119,7 +15894,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -16131,7 +15906,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -16146,7 +15921,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -16166,7 +15941,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -16181,7 +15956,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -16201,7 +15976,7 @@
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/27(水)  </t>
+          <t xml:space="preserve">11/13(土)  </t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -16226,7 +16001,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -16238,7 +16013,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -16263,7 +16038,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -16273,7 +16048,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -16298,7 +16073,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -16308,7 +16083,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/28(木)  </t>
+          <t xml:space="preserve">11/14(日)  </t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
@@ -16323,7 +16098,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
@@ -16333,7 +16108,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -16345,7 +16120,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16355,12 +16130,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -16380,7 +16155,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -16415,7 +16190,7 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/29(金)  </t>
+          <t xml:space="preserve">11/15(月)  </t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
@@ -16425,7 +16200,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -16452,7 +16227,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -16487,12 +16262,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -16512,7 +16287,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -16522,12 +16297,12 @@
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t xml:space="preserve">10/30(土)  </t>
+          <t xml:space="preserve">11/16(火)  </t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
@@ -16551,113 +16326,6 @@
         </is>
       </c>
       <c r="Y117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/31(日)  </t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
         <is>
           <t>X</t>
         </is>
